--- a/授课文档/web流程.xlsx
+++ b/授课文档/web流程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>前端
 HTML/CSS/JS/JQ
@@ -296,12 +297,193 @@
     <t>2.服务器怎样获取客户端的cookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name=zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session技术是基于cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储的session编号---JSESSONID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.怎样创建一个专属客户端的session区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.怎样向session区域中存取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送编号和根据编号去寻找session区域，这些操作是由客户端和服务器自动完成，不用手动完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.记住当前访问的时间new Date()
+把当前时间以cookie的形式给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">set-cookie:lastAccessTime=2019-8-2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cookie:lastAccessTime=2019-8-2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.获取客户端携带名字叫
+lastAccessTime的这个cookie并获得时间显示给用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95年出现JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98年 使用用户很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet:在JAVA代码中嵌HTML
+开发web工程时 servlet技术
+缺点：生成html页面的时候很繁琐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php\asp(asp.net)
+在html中嵌入java代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp技术：html中嵌入java代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet:擅长编写JAVA代码
+jsp技术：页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%@ include file="header.jsp" %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbbbbbbbbbbbbbbbbbbbbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response.getWriter().write("ccccccccccccccccccccc");</t>
+  </si>
+  <si>
+    <t>dddddddddddddddddddddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccccccccccccccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%@ include file=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include1.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include2.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include1_jsp.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jsp:include page="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include(request,response,"/include2.jsp"),out,false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include2_jsp.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +514,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,10 +786,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -610,102 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -717,9 +819,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1030,255 +1331,255 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="H5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="13" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="Q5" s="22" t="s">
+      <c r="N5" s="27"/>
+      <c r="Q5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="15"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="23" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="18"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="18"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="30"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="23" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="23" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="18"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="30"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="18"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="30"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="18"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="30"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="18"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="18"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="30"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="18"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="30"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="18"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="30"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="18"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.15">
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="21"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1359,10 +1660,10 @@
     <row r="9" spans="5:20" x14ac:dyDescent="0.15">
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
@@ -1544,16 +1845,16 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" t="s">
         <v>14</v>
       </c>
@@ -1630,104 +1931,104 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="H10" s="27" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="H10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1744,559 +2045,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="4:15" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="H6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="42" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="42" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="35">
         <v>302</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="42" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="42" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="H33" s="33" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="H33" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="38"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="42" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="38"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="38"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="38"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50"/>
     </row>
     <row r="41" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="38"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="50"/>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="38"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="38"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="38"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
     </row>
     <row r="45" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="38"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="38"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
     </row>
     <row r="47" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="42" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="38"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="38"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="38"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="50"/>
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="38"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="38"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="41"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2323,13 +2624,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T48"/>
+  <dimension ref="C3:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="10" max="10" width="24.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
@@ -2338,26 +2643,26 @@
     </row>
     <row r="4" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="G5" s="45" t="s">
+      <c r="D5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="46"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2365,105 +2670,105 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="45" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="48"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="G8" s="47"/>
+      <c r="D8" s="16"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="53" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="47"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="46"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="16"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="47"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="G11" s="47"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="48"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="48"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="16"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="G12" s="47"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -2471,14 +2776,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="48"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="48"/>
+      <c r="O12" s="16"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="G13" s="47"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -2486,12 +2791,12 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="48"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="48"/>
+      <c r="O13" s="16"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="G14" s="47"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2501,12 +2806,12 @@
         <v>44</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="48"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
+      <c r="O14" s="16"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="G15" s="47"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2514,12 +2819,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="48"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
+      <c r="O15" s="16"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="47"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2527,108 +2832,108 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="48"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
+      <c r="O16" s="16"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="47"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="46"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="48"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="48"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="16"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="D18" s="14"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="48"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="47"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="48"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="G20" s="47"/>
+      <c r="D20" s="16"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="47"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="G21" s="47"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="47"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="48"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="G22" s="47"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="50"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="G23" s="47"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2636,12 +2941,12 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="48"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="G24" s="47"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2649,12 +2954,12 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="48"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2662,42 +2967,42 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="48"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="3:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="50"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="33" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="46"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="14"/>
     </row>
     <row r="35" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -2705,59 +3010,59 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="48"/>
+      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="45" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="46"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="14"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="48"/>
+      <c r="O36" s="16"/>
     </row>
     <row r="37" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="G37" s="47"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="47"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="48"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="48"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="53" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="50"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="48"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="G39" s="47"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
@@ -2767,12 +3072,12 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="48"/>
+      <c r="O39" s="16"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="G40" s="47"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2780,12 +3085,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="48"/>
+      <c r="O40" s="16"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="G41" s="47"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -2793,12 +3098,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="48"/>
+      <c r="O41" s="16"/>
     </row>
     <row r="42" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="G42" s="47"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -2806,74 +3111,74 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="48"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="53" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="45" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="46"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="14"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="G44" s="47"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="15" t="s">
         <v>50</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="48"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="48"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="G45" s="47"/>
+      <c r="D45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="47"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="48"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="48"/>
+      <c r="O45" s="16"/>
     </row>
     <row r="46" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="G46" s="47"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="50"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="48"/>
+      <c r="O46" s="16"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="G47" s="47"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
@@ -2883,24 +3188,1225 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="48"/>
+      <c r="O47" s="16"/>
     </row>
     <row r="48" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="50"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="G54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="4"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="4"/>
+      <c r="D60" s="6"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C61" s="4"/>
+      <c r="D61" s="6"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C64" s="4"/>
+      <c r="D64" s="6"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C65" s="4"/>
+      <c r="D65" s="6"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C66" s="4"/>
+      <c r="D66" s="6"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="4"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C68" s="4"/>
+      <c r="D68" s="6"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C69" s="4"/>
+      <c r="D69" s="6"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C70" s="4"/>
+      <c r="D70" s="6"/>
+      <c r="G70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C71" s="7"/>
+      <c r="D71" s="9"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E79" s="4"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C89" s="4"/>
+      <c r="D89" s="6"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C90" s="4"/>
+      <c r="D90" s="6"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C91" s="4"/>
+      <c r="D91" s="6"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="3:15" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="4"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="55"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C93" s="4"/>
+      <c r="D93" s="6"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="3:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="C94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="55"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C98" s="4"/>
+      <c r="D98" s="6"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C99" s="4"/>
+      <c r="D99" s="6"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C100" s="4"/>
+      <c r="D100" s="6"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C101" s="4"/>
+      <c r="D101" s="6"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C102" s="7"/>
+      <c r="D102" s="9"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E97:F97"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:W89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89:I89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="K7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="L13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C17" s="35"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="36"/>
+      <c r="L17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C18" s="43"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="44"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+      <c r="J27" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="R27" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="6"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="J30" s="4"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="6"/>
+      <c r="R30" s="4"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="6"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="6"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="6"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J34" s="4"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="6"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J35" s="4"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="6"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J36" s="4"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="6"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J37" s="4"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="6"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J38" s="4"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="6"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C39" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="6"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="6"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="6"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="6"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="74"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.15">
+      <c r="J46" s="7"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="9"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J50" s="41"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="42"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J51" s="35"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J52" s="35"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="36"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="35"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="36"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="35"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="36"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="44"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J63" s="4"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="J64" s="4"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C73" s="7"/>
+      <c r="D73" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="H74" s="7"/>
+      <c r="I74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="M74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C77" s="7"/>
+      <c r="D77" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="81" spans="3:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C85" s="7"/>
+      <c r="D85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="H85" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" t="s">
+        <v>95</v>
+      </c>
+      <c r="N85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C89" s="7"/>
+      <c r="D89" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="H89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J50:L55"/>
+    <mergeCell ref="C27:G33"/>
+    <mergeCell ref="C39:G45"/>
+    <mergeCell ref="K31:N41"/>
+    <mergeCell ref="S31:V41"/>
+    <mergeCell ref="C5:G7"/>
+    <mergeCell ref="C10:G12"/>
+    <mergeCell ref="K7:O9"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="C16:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J27" r:id="rId1"/>
+    <hyperlink ref="R27" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>